--- a/estimation/estimation commands.xlsx
+++ b/estimation/estimation commands.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31760" yWindow="460" windowWidth="19380" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="18720" yWindow="460" windowWidth="19380" windowHeight="21600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
   <si>
     <t>year_from</t>
   </si>
@@ -56,17 +56,47 @@
     <t>spot4</t>
   </si>
   <si>
-    <t>spot5</t>
+    <t>iMac</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>running</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,17 +119,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -375,37 +416,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="2" width="10.83203125" style="2"/>
     <col min="3" max="3" width="72.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="4" max="5" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1936</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <f>A2+4</f>
         <v>1940</v>
       </c>
@@ -416,13 +461,16 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <f>A2+5</f>
         <v>1941</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <f>A3+4</f>
         <v>1945</v>
       </c>
@@ -433,13 +481,16 @@
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <f t="shared" ref="A4:A15" si="1">A3+5</f>
         <v>1946</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <f t="shared" ref="B4:B17" si="2">A4+4</f>
         <v>1950</v>
       </c>
@@ -450,13 +501,16 @@
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>1951</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <f t="shared" si="2"/>
         <v>1955</v>
       </c>
@@ -467,13 +521,16 @@
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>1956</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <f t="shared" si="2"/>
         <v>1960</v>
       </c>
@@ -484,13 +541,16 @@
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>1961</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <f t="shared" si="2"/>
         <v>1965</v>
       </c>
@@ -501,13 +561,16 @@
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>1966</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <f t="shared" si="2"/>
         <v>1970</v>
       </c>
@@ -518,13 +581,16 @@
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>1971</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <f t="shared" si="2"/>
         <v>1975</v>
       </c>
@@ -535,13 +601,16 @@
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>1976</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <f t="shared" si="2"/>
         <v>1980</v>
       </c>
@@ -552,13 +621,16 @@
       <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>1981</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <f t="shared" si="2"/>
         <v>1985</v>
       </c>
@@ -569,13 +641,16 @@
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <f t="shared" si="1"/>
         <v>1986</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <f t="shared" si="2"/>
         <v>1990</v>
       </c>
@@ -586,13 +661,16 @@
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <f t="shared" si="1"/>
         <v>1991</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f t="shared" si="2"/>
         <v>1995</v>
       </c>
@@ -603,13 +681,16 @@
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <f t="shared" si="1"/>
         <v>1996</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
@@ -620,13 +701,16 @@
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <f t="shared" si="1"/>
         <v>2001</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f t="shared" si="2"/>
         <v>2005</v>
       </c>
@@ -637,13 +721,16 @@
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <f t="shared" ref="A16:A17" si="3">A15+5</f>
         <v>2006</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f t="shared" si="2"/>
         <v>2010</v>
       </c>
@@ -654,13 +741,16 @@
       <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <f t="shared" si="3"/>
         <v>2011</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f t="shared" si="2"/>
         <v>2015</v>
       </c>
@@ -671,8 +761,12 @@
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>